--- a/Projekt/Getriebemotor/weitere Dateien/Parameter_1.xlsx
+++ b/Projekt/Getriebemotor/weitere Dateien/Parameter_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\DrawMachine\DrawMachineConstruction\Projekt\Getriebemotor\weitere Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BCF9E-D4B9-4993-86D9-459445B103B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A80E4-410B-42F0-B4DA-0C5DA0EC5D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Parametername</t>
   </si>
@@ -47,6 +47,69 @@
   </si>
   <si>
     <t xml:space="preserve">Kommentar </t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>gh_b</t>
+  </si>
+  <si>
+    <t>gh_l</t>
+  </si>
+  <si>
+    <t>gh_h</t>
+  </si>
+  <si>
+    <t>s_d</t>
+  </si>
+  <si>
+    <t>Absatz_h</t>
+  </si>
+  <si>
+    <t>s_h</t>
+  </si>
+  <si>
+    <t>gs_h</t>
+  </si>
+  <si>
+    <t>s_d_u</t>
+  </si>
+  <si>
+    <t>schraube_d</t>
+  </si>
+  <si>
+    <t>s_p_y</t>
+  </si>
+  <si>
+    <t>schraube_p_y</t>
+  </si>
+  <si>
+    <t>schraube_p_x</t>
+  </si>
+  <si>
+    <t>M_l</t>
+  </si>
+  <si>
+    <t>M_d</t>
+  </si>
+  <si>
+    <t>nut_b</t>
+  </si>
+  <si>
+    <t>nut_l</t>
+  </si>
+  <si>
+    <t>m 2,5 ; 4,15mm tief</t>
+  </si>
+  <si>
+    <t>nut_p_x_neg</t>
+  </si>
+  <si>
+    <t>m_p_z_neg</t>
+  </si>
+  <si>
+    <t>m_p_xn</t>
   </si>
 </sst>
 </file>
@@ -398,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +489,218 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>45.87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>31.87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>22.25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>13.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>14.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>37.75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>15.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>7.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>6.75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>5.75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>24.15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>30.75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>13.074999999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>13.375</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>15.87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
